--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/84.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/84.xlsx
@@ -479,13 +479,13 @@
         <v>-0.08350990140905627</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.591578915134352</v>
+        <v>-2.589530801501832</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1526921546252767</v>
+        <v>-0.1612243349723053</v>
       </c>
       <c r="G2" t="n">
-        <v>0.173253114552946</v>
+        <v>0.1676040292449054</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.0664755722770894</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.717993514279862</v>
+        <v>-2.713205636967389</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2412989908605276</v>
+        <v>-0.2521269126348358</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2007648065190206</v>
+        <v>0.1963502006607181</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.04212313744135306</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.939830203302605</v>
+        <v>-2.933172309195223</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3552730379624069</v>
+        <v>-0.3667706526397845</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1974541570856321</v>
+        <v>0.1924637861084795</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.01181671242958204</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.108166480323038</v>
+        <v>-3.098275396708215</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4236969890833878</v>
+        <v>-0.4357923260239785</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2520469370199973</v>
+        <v>0.2495316241490883</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.01978445437528446</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.293511005335269</v>
+        <v>-3.286864699720745</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4670007472118232</v>
+        <v>-0.4796486722855476</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2436025852504204</v>
+        <v>0.2432226046688064</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.04805035532144952</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.079194028336152</v>
+        <v>-3.08153337909182</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5102740093064211</v>
+        <v>-0.5186866452008071</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2480647649215092</v>
+        <v>0.2493273007223777</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.07141565516891614</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.754935799749815</v>
+        <v>-2.754942508877259</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5230774641527164</v>
+        <v>-0.5325617306761486</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2611176773245944</v>
+        <v>0.2638970858485353</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.09103408193270829</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.321794531950414</v>
+        <v>-2.321631683129722</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5588285745409806</v>
+        <v>-0.5707885090913332</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2494212285065969</v>
+        <v>0.2530673343121968</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1105824291992218</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.922738681171078</v>
+        <v>-1.914442540125951</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6422272981174797</v>
+        <v>-0.6599387846495666</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2835975237074976</v>
+        <v>0.2857871389370231</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1343157562623259</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.358533388907318</v>
+        <v>-1.341097586521121</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7898927534822451</v>
+        <v>-0.8135113217686368</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3109695438385969</v>
+        <v>0.3148949933141474</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1674036693169725</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.8464793641088996</v>
+        <v>-0.8230126660710181</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.059707022779344</v>
+        <v>-1.091757134501101</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3423048285272052</v>
+        <v>0.3465840319952695</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2117831948127404</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2201243747258652</v>
+        <v>-0.1892678777685043</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.435666397371584</v>
+        <v>-1.475824184649353</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4177800725920703</v>
+        <v>0.4231583531196347</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2679908927608471</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4266696664556733</v>
+        <v>0.4635906047019402</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.793885009239254</v>
+        <v>-1.831285955058121</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5223198666660107</v>
+        <v>0.5312509351356325</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3364030878732936</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9957976285014676</v>
+        <v>1.042707237670838</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.157073254781066</v>
+        <v>-2.19342086759119</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6146758853012319</v>
+        <v>0.6257959590797025</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4161639988370234</v>
       </c>
       <c r="E16" t="n">
-        <v>1.592372630921601</v>
+        <v>1.646093834208894</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.587032566409872</v>
+        <v>-2.624623197559209</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7280296430748585</v>
+        <v>0.7400499597722092</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5072915163633914</v>
       </c>
       <c r="E17" t="n">
-        <v>2.11802239752541</v>
+        <v>2.17449739266822</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.874658959150721</v>
+        <v>-2.905971066853613</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8648452195209526</v>
+        <v>0.8787977649222412</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6091844163111081</v>
       </c>
       <c r="E18" t="n">
-        <v>2.551910208233151</v>
+        <v>2.606178510367486</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.146722615903667</v>
+        <v>-3.1719952890654</v>
       </c>
       <c r="G18" t="n">
-        <v>1.00111064751662</v>
+        <v>1.018981323345338</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7236299232344802</v>
       </c>
       <c r="E19" t="n">
-        <v>2.900677489293932</v>
+        <v>2.953253871470968</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.389144127766657</v>
+        <v>-3.409158979734483</v>
       </c>
       <c r="G19" t="n">
-        <v>1.107297837338457</v>
+        <v>1.12176149626686</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8508672009278521</v>
       </c>
       <c r="E20" t="n">
-        <v>3.26577966591938</v>
+        <v>3.3216301022892</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.635764028608043</v>
+        <v>-3.654958232305304</v>
       </c>
       <c r="G20" t="n">
-        <v>1.208961245500853</v>
+        <v>1.222151999976884</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.986889720629369</v>
       </c>
       <c r="E21" t="n">
-        <v>3.582666393206541</v>
+        <v>3.634546245970731</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.791122718428969</v>
+        <v>-3.80567512081584</v>
       </c>
       <c r="G21" t="n">
-        <v>1.362313601255618</v>
+        <v>1.375584865260979</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.12657101450883</v>
       </c>
       <c r="E22" t="n">
-        <v>3.799154077894203</v>
+        <v>3.848009943943076</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.955982142631601</v>
+        <v>-3.963411281434731</v>
       </c>
       <c r="G22" t="n">
-        <v>1.450369679119765</v>
+        <v>1.461909988244515</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.261402127969142</v>
       </c>
       <c r="E23" t="n">
-        <v>4.013604627521527</v>
+        <v>4.057967817865475</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.098868564533707</v>
+        <v>-4.108378447725562</v>
       </c>
       <c r="G23" t="n">
-        <v>1.547106757976067</v>
+        <v>1.560140152917497</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.383794612019118</v>
       </c>
       <c r="E24" t="n">
-        <v>4.146625887437572</v>
+        <v>4.189960751520521</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.212216528060904</v>
+        <v>-4.217410002623414</v>
       </c>
       <c r="G24" t="n">
-        <v>1.603653723758733</v>
+        <v>1.618146048958944</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.487332662521407</v>
       </c>
       <c r="E25" t="n">
-        <v>4.258212095089982</v>
+        <v>4.296956696159726</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.17715554291838</v>
+        <v>-4.181728728152637</v>
       </c>
       <c r="G25" t="n">
-        <v>1.600496164415209</v>
+        <v>1.611874234639944</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.56621540903752</v>
       </c>
       <c r="E26" t="n">
-        <v>4.25446718213475</v>
+        <v>4.29263479824429</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.044314514562315</v>
+        <v>-4.050661654084894</v>
       </c>
       <c r="G26" t="n">
-        <v>1.556534911797239</v>
+        <v>1.56880468605138</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.618348319487335</v>
       </c>
       <c r="E27" t="n">
-        <v>4.366380307269897</v>
+        <v>4.399490461127843</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.952027721923905</v>
+        <v>-3.965015372814578</v>
       </c>
       <c r="G27" t="n">
-        <v>1.479156105300243</v>
+        <v>1.492079104599181</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.642309245722673</v>
       </c>
       <c r="E28" t="n">
-        <v>4.29378632848199</v>
+        <v>4.323685859897533</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.800314223027563</v>
+        <v>-3.812097890502335</v>
       </c>
       <c r="G28" t="n">
-        <v>1.418182945166417</v>
+        <v>1.430850387701797</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.638882630277669</v>
       </c>
       <c r="E29" t="n">
-        <v>4.220659279022605</v>
+        <v>4.250879628714118</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.731924732424818</v>
+        <v>-3.744188102511853</v>
       </c>
       <c r="G29" t="n">
-        <v>1.334859241833157</v>
+        <v>1.350135925023666</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.610190000915942</v>
       </c>
       <c r="E30" t="n">
-        <v>4.058350848050472</v>
+        <v>4.084289554591214</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.586453161734315</v>
+        <v>-3.599486251715406</v>
       </c>
       <c r="G30" t="n">
-        <v>1.251189713476182</v>
+        <v>1.264873893779701</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.558499166953654</v>
       </c>
       <c r="E31" t="n">
-        <v>3.82553070748085</v>
+        <v>3.845292137407487</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.464234816844833</v>
+        <v>-3.480962806285663</v>
       </c>
       <c r="G31" t="n">
-        <v>1.153945790537502</v>
+        <v>1.173895685953254</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.488345757817246</v>
       </c>
       <c r="E32" t="n">
-        <v>3.612850147657449</v>
+        <v>3.629283850371748</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.35109605610976</v>
+        <v>-3.371129815618565</v>
       </c>
       <c r="G32" t="n">
-        <v>1.085762758083836</v>
+        <v>1.104329963325401</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.40331126345385</v>
       </c>
       <c r="E33" t="n">
-        <v>3.424002848198655</v>
+        <v>3.434867975134244</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.214029192344845</v>
+        <v>-3.237256191556765</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9814931588696955</v>
+        <v>1.00191330312722</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.309006488971094</v>
       </c>
       <c r="E34" t="n">
-        <v>3.143180730527606</v>
+        <v>3.15444474558579</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.023488143166722</v>
+        <v>-3.048468969284631</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9051902524464831</v>
+        <v>0.9270278523567705</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.210007070564006</v>
       </c>
       <c r="E35" t="n">
-        <v>2.801451934076498</v>
+        <v>2.809186948099017</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.938334067882542</v>
+        <v>-2.963963544640172</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8614058768247703</v>
+        <v>0.8791460296286643</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.109746157303658</v>
       </c>
       <c r="E36" t="n">
-        <v>2.49018379606354</v>
+        <v>2.494764300345918</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.84711860091284</v>
+        <v>-2.869353869104367</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7901464044775877</v>
+        <v>0.8080780723739805</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.012669066282376</v>
       </c>
       <c r="E37" t="n">
-        <v>2.187298407831808</v>
+        <v>2.191323884298345</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.80612827191131</v>
+        <v>-2.829822470361618</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7420919741979617</v>
+        <v>0.7592063483875122</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9201967675728502</v>
       </c>
       <c r="E38" t="n">
-        <v>1.946014398030953</v>
+        <v>1.946248607570825</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.71003587921033</v>
+        <v>-2.72994673970277</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7530937233651431</v>
+        <v>0.7721153195108849</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8346597178739894</v>
       </c>
       <c r="E39" t="n">
-        <v>1.662748938128853</v>
+        <v>1.660659959810991</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.564788759328871</v>
+        <v>-2.581099867987144</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6647711101652569</v>
+        <v>0.6804405822715912</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.756808302620478</v>
       </c>
       <c r="E40" t="n">
-        <v>1.425744131796062</v>
+        <v>1.423144039951085</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.471279990614596</v>
+        <v>-2.487181232578094</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6064419561651331</v>
+        <v>0.6205402726081645</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6860232383579122</v>
       </c>
       <c r="E41" t="n">
-        <v>1.139313183581639</v>
+        <v>1.134411861023292</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.363167281216265</v>
+        <v>-2.381597864226238</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5754958008682901</v>
+        <v>0.5898045399447996</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6232415296541661</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8763946774558538</v>
+        <v>0.8669085811703913</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.24288116503072</v>
+        <v>-2.257639415645993</v>
       </c>
       <c r="G42" t="n">
-        <v>0.553797872792978</v>
+        <v>0.5652259565132064</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5666166838933002</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7143869373773579</v>
+        <v>0.7042006521549886</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.117518679052601</v>
+        <v>-2.130423380731236</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4760951984166289</v>
+        <v>0.4875854940458856</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5160382110453837</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5286734103556953</v>
+        <v>0.5171727460749339</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.035330648019447</v>
+        <v>-2.045652335632054</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4190358992654946</v>
+        <v>0.4285762784911877</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4704102210014212</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4533884615419754</v>
+        <v>0.4432759767214927</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.93056701305714</v>
+        <v>-1.938996116809798</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3741292695985654</v>
+        <v>0.3836507412832793</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.428449368858396</v>
       </c>
       <c r="E46" t="n">
-        <v>0.235965768456858</v>
+        <v>0.2276129047887933</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.876131592657376</v>
+        <v>-1.883538469355804</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2899718047001916</v>
+        <v>0.2961978749684357</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3906802913698952</v>
       </c>
       <c r="E47" t="n">
-        <v>0.08344717426720839</v>
+        <v>0.07246433264100612</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.779531745953342</v>
+        <v>-1.786602556358882</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2498835483795719</v>
+        <v>0.2566585472568894</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3559297616041679</v>
       </c>
       <c r="E48" t="n">
-        <v>0.02647997313826303</v>
+        <v>0.01840340353676525</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.757868583356604</v>
+        <v>-1.763496931361635</v>
       </c>
       <c r="G48" t="n">
-        <v>0.217688275536749</v>
+        <v>0.2238905588986</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3238828254403137</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.07337197061419178</v>
+        <v>-0.07990056153810299</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.672009439770103</v>
+        <v>-1.675013299103087</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1765424167626482</v>
+        <v>0.1832686219858258</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2933267849475017</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.1788059084002448</v>
+        <v>-0.183693202783027</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.645390671674787</v>
+        <v>-1.646961217417414</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1318395006017528</v>
+        <v>0.1380966768245111</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2626996079868981</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.2813042979691094</v>
+        <v>-0.2849016101205695</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.644144603732191</v>
+        <v>-1.64451055613824</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07831286201034324</v>
+        <v>0.0833508068002822</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2315198164040646</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3621877086746996</v>
+        <v>-0.3631977373153945</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.616927503452986</v>
+        <v>-1.616999474092842</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03708222426217452</v>
+        <v>0.04283804568864594</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1988255436591422</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4660120657948146</v>
+        <v>-0.4685462862067027</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.561649782598633</v>
+        <v>-1.56142716155162</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01913957779360016</v>
+        <v>0.02676541601498112</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1649902392632358</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5394318771790387</v>
+        <v>-0.5411317261051356</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.585291527870741</v>
+        <v>-1.583996056353328</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.009784080539146247</v>
+        <v>-0.005413388969569664</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1304696985782657</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.5850484545137028</v>
+        <v>-0.5840628227000779</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.536987640034325</v>
+        <v>-1.536768678511372</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.05264076681152529</v>
+        <v>-0.04708012000161324</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.09563411109013718</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.653824939785844</v>
+        <v>-0.6558462169085871</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.53190578095566</v>
+        <v>-1.535515901441332</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.09860499893193568</v>
+        <v>-0.09538400783802918</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.061612301137513</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.7337910297936052</v>
+        <v>-0.7341679607718354</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.597562521966235</v>
+        <v>-1.598440197820076</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1182895788533025</v>
+        <v>-0.1149685607684093</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.0286010706041556</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7968592674520614</v>
+        <v>-0.7976167889325825</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.620080183431097</v>
+        <v>-1.620146054864186</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1419703590487226</v>
+        <v>-0.1382559421273269</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.003013263502686886</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.942543700458749</v>
+        <v>-0.949063142572509</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.613960849281283</v>
+        <v>-1.611274148700208</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1534014923723347</v>
+        <v>-0.1496492603689807</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.03331748274099655</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.059692384683102</v>
+        <v>-1.064821207653876</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.649292334243945</v>
+        <v>-1.649392361234931</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1883883721526335</v>
+        <v>-0.1827307479551186</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.06227927308522217</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.173208381356744</v>
+        <v>-1.179252695263317</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.695851239024185</v>
+        <v>-1.6979414371834</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1916551072972962</v>
+        <v>-0.1870331284088994</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.0896522312898607</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.257541503410021</v>
+        <v>-1.265815687310785</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.642855231421546</v>
+        <v>-1.645526074065026</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2203421164074643</v>
+        <v>-0.2150876497772798</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1155267611155406</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.298039626425415</v>
+        <v>-1.31119378566084</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.733552875736689</v>
+        <v>-1.739292839225565</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2439484862803211</v>
+        <v>-0.2382018136640009</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1396768109461896</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.39532197436673</v>
+        <v>-1.408263271285971</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.805487530273032</v>
+        <v>-1.810376654417844</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.25498073148134</v>
+        <v>-0.2478251421017318</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1623674596960125</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.41410570144854</v>
+        <v>-1.427902717077258</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.882344244670731</v>
+        <v>-1.888886253849531</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2809127288946372</v>
+        <v>-0.2731746652687346</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1834541911308721</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.449004142730711</v>
+        <v>-1.465151182726939</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.95454787422552</v>
+        <v>-1.961772384641601</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3065330568421161</v>
+        <v>-0.2986931364631966</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2024624440817068</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.480458971871961</v>
+        <v>-1.497599572650612</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.053087268681613</v>
+        <v>-2.063119853893442</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3383739657717485</v>
+        <v>-0.3303126441871694</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2187478866661879</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.485425555942721</v>
+        <v>-1.506549548661213</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.174713380593973</v>
+        <v>-2.181973876329982</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3901153665423165</v>
+        <v>-0.3817204183475562</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2313407212914005</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.481849591014947</v>
+        <v>-1.502385010280377</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.30385737476793</v>
+        <v>-2.310991616923852</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3736450685874119</v>
+        <v>-0.3634557337616589</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2397927083211936</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.46578489031008</v>
+        <v>-1.485257827756615</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.423464649240255</v>
+        <v>-2.429017977002046</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4117205866747629</v>
+        <v>-0.4012354403207871</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2437327705119789</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.553605538793003</v>
+        <v>-1.570186232390399</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.531349248305482</v>
+        <v>-2.535467432714885</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.445632176301955</v>
+        <v>-0.4365364292496112</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2433254254335918</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.582744499124641</v>
+        <v>-1.600066856264963</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.66174967907354</v>
+        <v>-2.665830048400984</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4435852825107885</v>
+        <v>-0.4348237719893026</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2388597808734291</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.555340763118351</v>
+        <v>-1.573712793743356</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.798227969385392</v>
+        <v>-2.802354692684269</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4991319783835876</v>
+        <v>-0.4892250368311689</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2306302469726988</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.501446342358862</v>
+        <v>-1.517509823222376</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.891493989670321</v>
+        <v>-2.894563110515718</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.541181739600629</v>
+        <v>-0.530585587683485</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2191502051192063</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.480035686922298</v>
+        <v>-1.491715057961347</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.010722198442047</v>
+        <v>-3.013262823021041</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5478506122801923</v>
+        <v>-0.5383858632184159</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2046596699258691</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.354317007268958</v>
+        <v>-1.36681916130094</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.046960940411371</v>
+        <v>-3.050280128734234</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5190269809384325</v>
+        <v>-0.5091310179581953</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1881978379801895</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.25046337395636</v>
+        <v>-1.263233283165434</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.090719089443984</v>
+        <v>-3.094320366079843</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5350624054508157</v>
+        <v>-0.5256068051991906</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1703624267758344</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.059672867221446</v>
+        <v>-1.068899747219291</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.112233126435256</v>
+        <v>-3.116304041992211</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5263807945379838</v>
+        <v>-0.5195557821651731</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1514880945822952</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8616895659456427</v>
+        <v>-0.8685438545109374</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.168161937612038</v>
+        <v>-3.176876789201753</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5437263286640218</v>
+        <v>-0.5326654171911959</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1318504322959574</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.678713972841902</v>
+        <v>-0.6887843731356892</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.194824619996079</v>
+        <v>-3.207030962499839</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4956560404468004</v>
+        <v>-0.4837839344738995</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1111335833022817</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3932918334268204</v>
+        <v>-0.4010073299876833</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.239934658208704</v>
+        <v>-3.249991945207941</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4426624725268687</v>
+        <v>-0.4318333309112069</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.08924927092957209</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1113047672631837</v>
+        <v>-0.1170782763892809</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.200393195774789</v>
+        <v>-3.208037331616473</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3719305815650731</v>
+        <v>-0.3595400430169363</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.06566964908418761</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1075994231457547</v>
+        <v>0.1016026830519678</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.224012373981858</v>
+        <v>-3.229549233885377</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3191864712019313</v>
+        <v>-0.3054809436747257</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.04060752410909486</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4093302315364027</v>
+        <v>0.4061055809184357</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.125146976924043</v>
+        <v>-3.125161919980623</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2598948623738991</v>
+        <v>-0.2476946190769077</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.0156159155580971</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6298299744357142</v>
+        <v>0.6259581979797175</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.038809655526971</v>
+        <v>-3.03479241298957</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2168344625954862</v>
+        <v>-0.2048580601868614</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.007144421694317433</v>
       </c>
       <c r="E86" t="n">
-        <v>0.942820528439808</v>
+        <v>0.9410712759388946</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.988411300086603</v>
+        <v>-2.985761499706471</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2058211249354465</v>
+        <v>-0.1941216265140653</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.02463746291595538</v>
       </c>
       <c r="E87" t="n">
-        <v>1.152453314641499</v>
+        <v>1.150264919253327</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.866704373684573</v>
+        <v>-2.864313484631721</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1850740631951846</v>
+        <v>-0.1759740466981036</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.03436634510885039</v>
       </c>
       <c r="E88" t="n">
-        <v>1.306812649433575</v>
+        <v>1.306349719639923</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.704059266498875</v>
+        <v>-2.70167264689076</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1389915064634851</v>
+        <v>-0.1311052321131327</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.03462008791794575</v>
       </c>
       <c r="E89" t="n">
-        <v>1.411065780789443</v>
+        <v>1.410305209705539</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.461969551484037</v>
+        <v>-2.460450848998934</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.140209518054951</v>
+        <v>-0.1331789624140761</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.0239047915190746</v>
       </c>
       <c r="E90" t="n">
-        <v>1.486131768080211</v>
+        <v>1.485107101343274</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.197245680155077</v>
+        <v>-2.194374173608947</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1268845810300361</v>
+        <v>-0.1209555421313683</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.002979964860965737</v>
       </c>
       <c r="E91" t="n">
-        <v>1.512561460765734</v>
+        <v>1.512848123483806</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.827998482610449</v>
+        <v>-1.823255129507379</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1044157132193144</v>
+        <v>-0.1020449515487947</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.02663597328792926</v>
       </c>
       <c r="E92" t="n">
-        <v>1.527295314553937</v>
+        <v>1.531440945393794</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.520750331777938</v>
+        <v>-1.516804144999378</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.0821572680420708</v>
+        <v>-0.07886674599101504</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.06236146821915924</v>
       </c>
       <c r="E93" t="n">
-        <v>1.511853952780706</v>
+        <v>1.519937841430325</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.179176455178723</v>
+        <v>-1.17393113735869</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.05384597006877945</v>
+        <v>-0.05069329009066874</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1014727314158532</v>
       </c>
       <c r="E94" t="n">
-        <v>1.50868175534094</v>
+        <v>1.516638170569118</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.8629728390495206</v>
+        <v>-0.8575414954230791</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.07227838284078252</v>
+        <v>-0.07149280500913101</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1404897745128654</v>
       </c>
       <c r="E95" t="n">
-        <v>1.439662521639453</v>
+        <v>1.441841768217474</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6332187697219109</v>
+        <v>-0.6298306603625754</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1382687504615386</v>
+        <v>-0.1385828596100639</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1757388051533626</v>
       </c>
       <c r="E96" t="n">
-        <v>1.344635050440075</v>
+        <v>1.344450854395697</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.369229242887756</v>
+        <v>-0.3659460398848212</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1979427795538919</v>
+        <v>-0.196896765593269</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.203288106258243</v>
       </c>
       <c r="E97" t="n">
-        <v>1.247375879484476</v>
+        <v>1.245184434492921</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1825532610381849</v>
+        <v>-0.1826953725558672</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2229775836516927</v>
+        <v>-0.2234356340799304</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2215761231150713</v>
       </c>
       <c r="E98" t="n">
-        <v>1.158005422561937</v>
+        <v>1.154294055243925</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.06057156537128029</v>
+        <v>-0.06428842197538295</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.2759918888746339</v>
+        <v>-0.2772446659446744</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2301155120761146</v>
       </c>
       <c r="E99" t="n">
-        <v>1.084533157999512</v>
+        <v>1.078191202802686</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1676906379810036</v>
+        <v>0.1655980001390811</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3205990474892798</v>
+        <v>-0.3213620582558916</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2354589313066027</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9111625957132001</v>
+        <v>0.9059416747202367</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2201102705441155</v>
+        <v>0.2202133471384859</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.303742059825317</v>
+        <v>-0.3060182837909408</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.241955964578682</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7789311830735444</v>
+        <v>0.7734967898437192</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2613561563092029</v>
+        <v>0.2634920985191746</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3522191651339294</v>
+        <v>-0.3545258851333906</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2601798322870851</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6576179604683556</v>
+        <v>0.6527471339438456</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2604144387843039</v>
+        <v>0.2634054897830764</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3304620747529727</v>
+        <v>-0.3343863043871697</v>
       </c>
     </row>
   </sheetData>
